--- a/data/trans_orig/P02F-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P02F-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8E0A95C-AD12-4874-B3AB-03FB5FE8E531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02FE8210-9C93-4108-9C78-E5E89628AE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8BA8B37A-4EAE-41B6-B402-CE0845AD5B4B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F9F3054-9A27-4125-8773-5342ED4FDB06}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="292">
   <si>
     <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2012 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -94,780 +94,759 @@
     <t>99,42%</t>
   </si>
   <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2016 (Tasa respuesta: 99,47%)</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2015 (Tasa respuesta: 99,47%)</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,08%</t>
   </si>
   <si>
     <t>99,49%</t>
   </si>
   <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>0,92%</t>
   </si>
   <si>
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
     <t>99,37%</t>
   </si>
   <si>
@@ -910,13 +889,7 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
     <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
   </si>
   <si>
     <t>0,12%</t>
@@ -1352,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492A23D9-CFBE-4BF8-B332-53C3FA5ECCE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78480C1-567B-43BE-83E5-E4992E3222BE}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2181,7 +2154,7 @@
         <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,13 +2169,13 @@
         <v>6479</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>41</v>
@@ -2211,13 +2184,13 @@
         <v>45106</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>47</v>
@@ -2226,13 +2199,13 @@
         <v>51585</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,7 +2261,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2306,7 +2279,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2321,7 +2294,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2336,7 +2309,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,13 +2324,13 @@
         <v>422305</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>385</v>
@@ -2366,13 +2339,13 @@
         <v>424985</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M21" s="7">
         <v>771</v>
@@ -2381,13 +2354,13 @@
         <v>847290</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,13 +2375,13 @@
         <v>6083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -2417,13 +2390,13 @@
         <v>21708</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -2432,13 +2405,13 @@
         <v>27791</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,7 +2467,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2512,7 +2485,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2527,7 +2500,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2557,13 +2530,13 @@
         <v>548516</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="H25" s="7">
         <v>681</v>
@@ -2572,13 +2545,13 @@
         <v>730076</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>1175</v>
@@ -2587,13 +2560,13 @@
         <v>1278591</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2581,13 @@
         <v>8202</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -2623,13 +2596,13 @@
         <v>10914</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -2638,13 +2611,13 @@
         <v>19117</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,7 +2691,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2733,7 +2706,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2748,7 +2721,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2736,13 @@
         <v>3366862</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H29" s="7">
         <v>3171</v>
@@ -2778,13 +2751,13 @@
         <v>3420740</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M29" s="7">
         <v>6323</v>
@@ -2793,13 +2766,13 @@
         <v>6787601</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2787,13 @@
         <v>45857</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H30" s="7">
         <v>117</v>
@@ -2829,13 +2802,13 @@
         <v>125222</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M30" s="7">
         <v>160</v>
@@ -2844,13 +2817,13 @@
         <v>171079</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,7 +2879,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2928,7 +2901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E67565-FDD2-4E6C-8EEF-F100304074B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C25D0D5-90E0-460B-B298-B9DCD4DCCD2A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2945,7 +2918,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3058,7 +3031,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3073,7 +3046,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3088,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3076,13 @@
         <v>408846</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>389</v>
@@ -3118,13 +3091,13 @@
         <v>381417</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>772</v>
@@ -3133,13 +3106,13 @@
         <v>790264</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3127,13 @@
         <v>7206</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -3169,13 +3142,13 @@
         <v>7504</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -3184,13 +3157,13 @@
         <v>14709</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,7 +3252,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3294,7 +3267,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,10 +3285,10 @@
         <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H9" s="7">
         <v>563</v>
@@ -3324,13 +3297,13 @@
         <v>547909</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M9" s="7">
         <v>1121</v>
@@ -3339,13 +3312,13 @@
         <v>1128805</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,10 +3336,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -3375,13 +3348,13 @@
         <v>13823</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -3390,13 +3363,13 @@
         <v>23423</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3488,13 @@
         <v>658800</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>636</v>
@@ -3530,13 +3503,13 @@
         <v>633572</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>1264</v>
@@ -3545,13 +3518,13 @@
         <v>1292373</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,13 +3539,13 @@
         <v>6466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -3581,13 +3554,13 @@
         <v>24429</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -3596,13 +3569,13 @@
         <v>30894</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,7 +3649,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3691,7 +3664,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3721,13 +3694,13 @@
         <v>630419</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>554</v>
@@ -3736,13 +3709,13 @@
         <v>597563</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>1122</v>
@@ -3751,13 +3724,13 @@
         <v>1227983</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,13 +3745,13 @@
         <v>14707</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -3787,13 +3760,13 @@
         <v>49719</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
@@ -3802,13 +3775,13 @@
         <v>64425</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,7 +3837,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3912,7 +3885,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3900,13 @@
         <v>457489</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="H21" s="7">
         <v>400</v>
@@ -3942,13 +3915,13 @@
         <v>457510</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M21" s="7">
         <v>805</v>
@@ -3957,13 +3930,13 @@
         <v>914999</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3951,13 @@
         <v>17102</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -3993,13 +3966,13 @@
         <v>35876</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -4008,13 +3981,13 @@
         <v>52977</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>74</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,7 +4043,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4088,7 +4061,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4133,13 +4106,13 @@
         <v>580029</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H25" s="7">
         <v>634</v>
@@ -4148,13 +4121,13 @@
         <v>751079</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M25" s="7">
         <v>1249</v>
@@ -4163,13 +4136,13 @@
         <v>1331108</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>245</v>
+        <v>109</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4157,13 @@
         <v>7366</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -4199,13 +4172,13 @@
         <v>21804</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -4214,13 +4187,13 @@
         <v>29170</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>253</v>
+        <v>117</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>133</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,7 +4267,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4309,7 +4282,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4324,7 +4297,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4312,13 @@
         <v>3316481</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>104</v>
+        <v>252</v>
       </c>
       <c r="H29" s="7">
         <v>3176</v>
@@ -4354,13 +4327,13 @@
         <v>3369050</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M29" s="7">
         <v>6333</v>
@@ -4369,13 +4342,13 @@
         <v>6685532</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>260</v>
+        <v>106</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>261</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4363,13 @@
         <v>62445</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>113</v>
+        <v>258</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H30" s="7">
         <v>142</v>
@@ -4405,13 +4378,13 @@
         <v>153155</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M30" s="7">
         <v>201</v>
@@ -4420,13 +4393,13 @@
         <v>215599</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>268</v>
+        <v>114</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>270</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,7 +4455,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4504,7 +4477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5052BB5E-1D3C-4D78-9629-07754C7B0E2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE43585B-5565-44D0-A5CC-36395738CE75}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4521,7 +4494,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4631,7 +4604,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>41</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>35</v>
@@ -4646,7 +4619,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>35</v>
@@ -4661,7 +4634,7 @@
         <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>35</v>
@@ -4685,7 +4658,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
+        <v>49</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4700,7 +4673,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4715,7 +4688,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,7 +4709,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>274</v>
+        <v>49</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4751,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4766,7 +4739,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,7 +4810,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>35</v>
@@ -4852,7 +4825,7 @@
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>35</v>
@@ -4867,7 +4840,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>35</v>
@@ -4891,7 +4864,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4906,7 +4879,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4921,7 +4894,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,7 +4915,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4957,7 +4930,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4972,7 +4945,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,7 +5016,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>35</v>
@@ -5058,7 +5031,7 @@
         <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>35</v>
@@ -5073,7 +5046,7 @@
         <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>35</v>
@@ -5112,7 +5085,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5127,7 +5100,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,7 +5136,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5178,7 +5151,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,7 +5222,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>35</v>
@@ -5264,7 +5237,7 @@
         <v>22</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>35</v>
@@ -5279,7 +5252,7 @@
         <v>22</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>35</v>
@@ -5318,7 +5291,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5333,7 +5306,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,7 +5342,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5384,7 +5357,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,7 +5413,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5455,7 +5428,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>35</v>
@@ -5470,7 +5443,7 @@
         <v>22</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>290</v>
+        <v>25</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>35</v>
@@ -5485,7 +5458,7 @@
         <v>22</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>35</v>
@@ -5524,7 +5497,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>292</v>
+        <v>33</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5539,7 +5512,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,7 +5548,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>292</v>
+        <v>33</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5590,7 +5563,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,7 +5619,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5661,7 +5634,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>290</v>
+        <v>25</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>35</v>
@@ -5676,7 +5649,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>35</v>
@@ -5691,7 +5664,7 @@
         <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>35</v>
@@ -5715,7 +5688,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>292</v>
+        <v>33</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5730,7 +5703,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5745,7 +5718,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,7 +5739,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>33</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5781,7 +5754,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5796,7 +5769,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,7 +5840,7 @@
         <v>22</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>35</v>
@@ -5882,7 +5855,7 @@
         <v>22</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>35</v>
@@ -5897,7 +5870,7 @@
         <v>22</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>35</v>
@@ -5921,7 +5894,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5936,7 +5909,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5951,7 +5924,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,7 +5945,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5987,7 +5960,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -6002,7 +5975,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,7 +6031,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P02F-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P02F-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E925280B-7621-4D21-B558-BFF1016D0BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A6BD51F-316B-45D8-8418-3FF8BA14B605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0130F79A-76CD-489D-B387-48C3A1A3A1EB}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{85BF6508-D18A-4E4F-87CA-8EC100C05C38}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="281">
   <si>
     <t>Población que se encarga del cuidado de alguna persona fuera del hogar sin percibir remuneración por ello en 2012 (Tasa respuesta: 99,63%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No</t>
@@ -132,7 +132,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>98,01%</t>
@@ -189,7 +189,7 @@
     <t>2,79%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>98,7%</t>
@@ -246,7 +246,7 @@
     <t>4,34%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>98,94%</t>
@@ -303,7 +303,7 @@
     <t>5,58%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>98,58%</t>
@@ -360,49 +360,94 @@
     <t>4,59%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>2,35%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>98,66%</t>
@@ -717,49 +762,82 @@
     <t>7,16%</t>
   </si>
   <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>98,56%</t>
@@ -784,9 +862,6 @@
   </si>
   <si>
     <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
   </si>
   <si>
     <t>4,35%</t>
@@ -1216,8 +1291,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D625B33D-79BC-441F-B30A-5B8D1C4780B1}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B167702-25D1-4B33-BBBB-116559538FF2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2109,10 +2184,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>494</v>
+        <v>275</v>
       </c>
       <c r="D19" s="7">
-        <v>548516</v>
+        <v>301702</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2124,34 +2199,34 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>681</v>
+        <v>333</v>
       </c>
       <c r="I19" s="7">
-        <v>730076</v>
+        <v>343313</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>1175</v>
+        <v>608</v>
       </c>
       <c r="N19" s="7">
-        <v>1278591</v>
+        <v>645014</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,49 +2235,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>8202</v>
+        <v>7175</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>10914</v>
+        <v>8698</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N20" s="7">
-        <v>19117</v>
+        <v>15874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,10 +2286,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>501</v>
+        <v>281</v>
       </c>
       <c r="D21" s="7">
-        <v>556718</v>
+        <v>308877</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2226,10 +2301,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>692</v>
+        <v>342</v>
       </c>
       <c r="I21" s="7">
-        <v>740990</v>
+        <v>352011</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2241,10 +2316,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1193</v>
+        <v>623</v>
       </c>
       <c r="N21" s="7">
-        <v>1297708</v>
+        <v>660888</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2258,55 +2333,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3152</v>
+        <v>219</v>
       </c>
       <c r="D22" s="7">
-        <v>3366862</v>
+        <v>246814</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="H22" s="7">
-        <v>3171</v>
+        <v>348</v>
       </c>
       <c r="I22" s="7">
-        <v>3420740</v>
+        <v>386763</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="M22" s="7">
-        <v>6323</v>
+        <v>567</v>
       </c>
       <c r="N22" s="7">
-        <v>6787602</v>
+        <v>633577</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,49 +2390,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>45857</v>
+        <v>1027</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>133</v>
       </c>
       <c r="H23" s="7">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>125222</v>
+        <v>2216</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="7">
+        <v>3</v>
+      </c>
+      <c r="N23" s="7">
+        <v>3243</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="M23" s="7">
-        <v>160</v>
-      </c>
-      <c r="N23" s="7">
-        <v>171079</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,63 +2441,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>247841</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>570</v>
+      </c>
+      <c r="N24" s="7">
+        <v>636820</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>3152</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3366862</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3171</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3420740</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M25" s="7">
+        <v>6323</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6787602</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>43</v>
+      </c>
+      <c r="D26" s="7">
+        <v>45857</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="7">
+        <v>117</v>
+      </c>
+      <c r="I26" s="7">
+        <v>125222</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M26" s="7">
+        <v>160</v>
+      </c>
+      <c r="N26" s="7">
+        <v>171079</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3195</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3412719</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3288</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3545962</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6483</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6958681</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2435,8 +2666,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC0A906-788C-4FF4-AF1E-955D698B552D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F369CA-2255-45A8-9F99-D8DAA8F1F568}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2452,7 +2683,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2559,13 +2790,13 @@
         <v>408846</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>389</v>
@@ -2574,13 +2805,13 @@
         <v>381417</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>772</v>
@@ -2589,10 +2820,10 @@
         <v>790264</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>70</v>
@@ -2610,13 +2841,13 @@
         <v>7206</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -2625,13 +2856,13 @@
         <v>7504</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -2640,13 +2871,13 @@
         <v>14709</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,10 +2948,10 @@
         <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>563</v>
@@ -2729,13 +2960,13 @@
         <v>547909</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>1121</v>
@@ -2744,13 +2975,13 @@
         <v>1128805</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,10 +2999,10 @@
         <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -2780,13 +3011,13 @@
         <v>13823</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -2795,13 +3026,13 @@
         <v>23423</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +3100,13 @@
         <v>658800</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>636</v>
@@ -2884,13 +3115,13 @@
         <v>633572</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>1264</v>
@@ -2899,13 +3130,13 @@
         <v>1292373</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +3151,13 @@
         <v>6466</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -2935,13 +3166,13 @@
         <v>24429</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -2950,13 +3181,13 @@
         <v>30894</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3255,13 @@
         <v>630419</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
         <v>554</v>
@@ -3039,13 +3270,13 @@
         <v>597563</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>1122</v>
@@ -3054,13 +3285,13 @@
         <v>1227983</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3306,13 @@
         <v>14707</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -3090,13 +3321,13 @@
         <v>49719</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -3105,13 +3336,13 @@
         <v>64425</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3410,13 @@
         <v>457489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
         <v>400</v>
@@ -3194,13 +3425,13 @@
         <v>457510</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="M16" s="7">
         <v>805</v>
@@ -3209,13 +3440,13 @@
         <v>914999</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3461,13 @@
         <v>17102</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -3245,13 +3476,13 @@
         <v>35876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
@@ -3260,13 +3491,13 @@
         <v>52977</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,49 +3559,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>615</v>
+        <v>318</v>
       </c>
       <c r="D19" s="7">
-        <v>580029</v>
+        <v>327481</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="H19" s="7">
-        <v>634</v>
+        <v>341</v>
       </c>
       <c r="I19" s="7">
-        <v>751079</v>
+        <v>363162</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="M19" s="7">
-        <v>1249</v>
+        <v>659</v>
       </c>
       <c r="N19" s="7">
-        <v>1331108</v>
+        <v>690643</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>246</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,49 +3610,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>7366</v>
+        <v>5799</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="H20" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7">
-        <v>21804</v>
+        <v>13517</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="M20" s="7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N20" s="7">
-        <v>29170</v>
+        <v>19316</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,10 +3661,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>623</v>
+        <v>324</v>
       </c>
       <c r="D21" s="7">
-        <v>587395</v>
+        <v>333280</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3445,10 +3676,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>651</v>
+        <v>353</v>
       </c>
       <c r="I21" s="7">
-        <v>772883</v>
+        <v>376679</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3460,10 +3691,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1274</v>
+        <v>677</v>
       </c>
       <c r="N21" s="7">
-        <v>1360278</v>
+        <v>709959</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3477,55 +3708,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>3157</v>
+        <v>297</v>
       </c>
       <c r="D22" s="7">
-        <v>3316481</v>
+        <v>252548</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>255</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>241</v>
+        <v>16</v>
       </c>
       <c r="H22" s="7">
-        <v>3176</v>
+        <v>293</v>
       </c>
       <c r="I22" s="7">
-        <v>3369050</v>
+        <v>387916</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="M22" s="7">
-        <v>6333</v>
+        <v>590</v>
       </c>
       <c r="N22" s="7">
-        <v>6685532</v>
+        <v>640465</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,49 +3765,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>62445</v>
+        <v>1567</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="H23" s="7">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>153155</v>
+        <v>8288</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="N23" s="7">
-        <v>215599</v>
+        <v>9854</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,63 +3816,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>299</v>
+      </c>
+      <c r="D24" s="7">
+        <v>254115</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>298</v>
+      </c>
+      <c r="I24" s="7">
+        <v>396204</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>597</v>
+      </c>
+      <c r="N24" s="7">
+        <v>650319</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>3157</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3316481</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3176</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3369050</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M25" s="7">
+        <v>6333</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6685532</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>59</v>
+      </c>
+      <c r="D26" s="7">
+        <v>62445</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="7">
+        <v>142</v>
+      </c>
+      <c r="I26" s="7">
+        <v>153155</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M26" s="7">
+        <v>201</v>
+      </c>
+      <c r="N26" s="7">
+        <v>215599</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3216</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3378926</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3318</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3522205</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6534</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6901131</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
